--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>99.49</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.80</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.02</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>89.87</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.13</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003446</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合A</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003447</t>
+          <t>003713</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>英大睿鑫灵活配置混合C</t>
+          <t>英大睿盛灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.53</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003713</t>
+          <t>003714</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合A</t>
+          <t>英大睿盛灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>88.60</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.35</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003714</t>
+          <t>003446</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>英大睿盛灵活配置混合C</t>
+          <t>英大睿鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.60</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>003447</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>英大睿鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.11</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -940,15 +1100,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>6.73</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001608</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>英大策略优选混合C</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001678</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>英大国企改革主题股票</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>99.40</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>001608</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>英大策略优选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1277,4 +1278,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2284</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1980,4 +1981,2796 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>130.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1109</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7299</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.2524</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9882</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9077</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2118</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2118</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8877</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7468</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3671</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3430</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>38.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3425</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.1357</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0855</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0637</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0347</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7944</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6489</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5879</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3087</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3084</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2930</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2602</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2258</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005552</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004448</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时汇智回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>54.69</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0864</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>090009</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005553</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富兰克林国海新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011927</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>40.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>450007</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国富成长动力混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011928</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时汇誉回报灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>48.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4773,4 +4774,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>58.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4782,7 +4783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4793,17 +4794,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4813,14 +4834,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
-        <v>58.87</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6323</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4829,14 +4872,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.07</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5935</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4845,14 +4910,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.57</v>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2843</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4861,13 +4948,1783 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6859</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3666</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1458</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9571</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4299</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3469</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2596</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2086</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>41.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010174</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>英大智享债券A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010175</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>英大智享债券C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D3" t="n">
+        <v>58.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6623,7 +6624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6634,17 +6635,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6654,14 +6675,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.16</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6670,14 +6713,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>58.87</v>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.2804</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -6686,14 +6751,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.07</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6702,14 +6789,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.57</v>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.6023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -6718,13 +6827,7043 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.5677</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>63.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.3454</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.8025</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011578</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.4444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014423</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇丰晋信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.3557</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0603</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8597</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8022</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.7031</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4281</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1959</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1785</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1521</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9542</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013910</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8505</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>39.24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.43</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>35.90</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5774</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5699</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5673</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4867</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4844</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519029</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏稳增混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.92</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4586</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4018</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3668</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011579</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>汇丰晋信核心成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3365</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>53.38</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013911</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业兴睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2852</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2557</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001239</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长盛国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2283</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2252</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014155</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1541</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1367</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>30.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>012080</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014156</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国泰君安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006160</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>博道启航混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>84.18</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>82.47</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008318</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博道久航混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014663</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012081</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>易方达中证500指数量化增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>008319</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>博道久航混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>012297</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006161</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>博道启航混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010395</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>014664</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>富国创新发展两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>46.63</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010396</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>融通稳健添盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>012298</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>东兴宸瑞量化混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>166107</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>78.16</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>166108</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>信达澳银量化多因子混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>72</v>
+      </c>
+      <c r="D4" t="n">
+        <v>58.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13746,7 +13747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13757,17 +13758,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13777,14 +13798,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>186</v>
-      </c>
-      <c r="D2" t="n">
-        <v>77.37</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7792</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -13793,14 +13836,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.16</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5602</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -13809,14 +13874,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>72</v>
-      </c>
-      <c r="D4" t="n">
-        <v>58.87</v>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2200</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -13825,14 +13912,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.07</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>424.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -13841,14 +13950,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>10</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.57</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9402</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -13857,13 +13988,8647 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5246</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.3730</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.9986</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011174</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中庚价值品质一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>75.09</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8697</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2399</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1967</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1875</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014224</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1318</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0518</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9259</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>36.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9192</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8366</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8240</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7775</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7700</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>21.11</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.7515</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>57.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6391</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6362</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6246</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6216</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4940</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4585</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4517</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4323</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3251</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3201</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>41.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>11.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2950</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2904</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2838</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2780</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2721</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>32.74</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002938</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014225</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成聚优成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2039</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>28.27</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.54</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1997</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1945</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.79</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002430</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010043</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>19.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>30.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1261</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011269</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1201</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.20</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1168</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0897</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0837</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005646</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中海沪港深多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>161217</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>国投瑞银中证上游资源产业指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003850</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001518</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>37.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002293</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方益和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0591</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>009347</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>35.61</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>95.83</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002431</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中银丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011270</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银证券优势制造股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>96.07</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010044</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天弘安康颐和混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>98.35</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>20.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011482</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011800</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>004641</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>万家量化睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>36.88</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>590007</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>009348</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中融价值成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>001196</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>44.43</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>003851</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中银锦利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>32.13</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>002192</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>东方鼎新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>36.55</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010851</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>008124</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>中邮中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>010850</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>海富通富利三个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>25.84</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>41.40</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>011483</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>中银顺宁回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>71.74</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>39.43</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>010066</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>010067</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>方正富邦中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>015158</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>申万菱信价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>80.21</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>015390</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>万家瑞兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>229</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.15000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>186</v>
+      </c>
+      <c r="D3" t="n">
+        <v>77.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D5" t="n">
+        <v>58.87</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.44</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
+++ b/数据整理/stocks/A股/上证主板/600256-广汇能源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>318</v>
+        <v>144</v>
       </c>
       <c r="D2" t="n">
-        <v>78.23999999999999</v>
+        <v>39.24</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="D3" t="n">
-        <v>65.15000000000001</v>
+        <v>78.23999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="D4" t="n">
-        <v>77.37</v>
+        <v>65.15000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="D5" t="n">
-        <v>29.16</v>
+        <v>77.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>58.87</v>
+        <v>29.16</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="D7" t="n">
-        <v>4.07</v>
+        <v>58.87</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>0.57</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -616,7 +633,5923 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>英大策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中庚小盘价值股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>76.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4776</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富深化价值混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9773</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160505</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时主题行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7617</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007497</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中庚价值灵动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>017787</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3295</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2538</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>31.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2165</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1798</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161026</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000925</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0959</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010437</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0639</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>530005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信优化配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8947</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7867</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>070011</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实策略增长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6939</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501064</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.36</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6789</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011246</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.26</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6699</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6435</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010361</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6148</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011820</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5999</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5598</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5570</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014917</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4713</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4488</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013919</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011821</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴业兴智一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3027</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>320005</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>诺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2781</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2662</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012816</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2604</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013050</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009539</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业睿进混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1812</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013049</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>兴业能源革新股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1659</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009611</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>510410</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时上证自然资源ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001106</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华商健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010438</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1017</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010439</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富稳健汇盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>24.26</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011980</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0953</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010534</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>25.78</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>016617</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰价值优选灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003434</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>014918</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇丰晋信时代先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>630016</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华商价值共享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.33</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011247</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>嘉实阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001796</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>36.38</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014999</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004099</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源沪港深景气行业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>39.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>014151</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015276</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015947</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009612</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>兴全汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.12</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010931</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010362</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实品质优选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011981</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富兰克林国海匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011424</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富外延增长主题股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.11</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011054</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>002137</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001834</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>014152</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>国富鑫享价值一年封闭混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>63.42</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>003435</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博时鑫泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>65.87</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014354</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>014355</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>东方欣冉九个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012817</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国泰致和两年封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009540</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴业睿进混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>23.43</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>015277</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时均衡回报混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>73.67</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>015436</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>建信优化配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010535</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发均衡增长混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>017426</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>国富深化价值混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>080008</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长盛战略新兴产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>47.08</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>20.77</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010932</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>国联安鑫元1个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>015000</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年盈混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>002158</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>汇添富安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014521</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>诺安利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014174</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>富国中证国有企业改革指数C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015179</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>015180</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合D</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011055</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫智选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12734,7 +18667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21482,7 +27415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28604,7 +34537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30444,7 +36377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33236,7 +39169,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33938,7 +39871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -34372,402 +40305,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003713</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0938</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003714</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>英大睿盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0829</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0753</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001607</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>英大策略优选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0548</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>003447</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0447</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003446</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>英大睿鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0435</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0342</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0122</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001608</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>英大策略优选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.80</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>